--- a/pred_ohlcv/54_21/2020-01-22 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 XRP ohlcv.xlsx
@@ -8400,7 +8400,7 @@
         <v>594989.9429352101</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>594989.9429352101</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>525568.08729605</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>526884.8106960501</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>526884.8106960501</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>526877.6340960501</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>770442.6510069001</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>757547.7912069001</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>757547.7912069001</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>795793.9941069002</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>893902.2385069001</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>870250.2341069002</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>946347.5980188402</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>941699.1376214601</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>967684.4106240801</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>967684.4106240801</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>967684.4106240801</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>967684.4106240801</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>967684.4106240801</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>937616.5975121401</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>937616.5975121401</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>937616.5975121401</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>937616.5975121401</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>832611.7532121401</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>775046.7403121401</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>765939.7124121401</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>767479.3523121401</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>867905.07621214</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>867905.07621214</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>927909.13791214</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>1017246.20431214</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>1058477.15911214</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>1064527.93491214</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>1169014.75311214</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>1563456.89629857</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>2494966.28873967</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>2872487.76042348</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>2872487.76042348</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>3513761.7737667</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-102771012.9409684</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-102691629.9711684</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-102850474.6283684</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-103180870.0201685</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-103180870.0201685</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-103035280.5804685</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-102771593.2073566</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-101434620.3544598</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-101591049.8465598</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-101851354.3883831</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-103815874.6491719</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-103722681.3877719</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-103720816.9020719</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-103720816.9020719</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-103720816.9020719</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-103720816.9020719</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-103911103.2160719</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-104581366.9227584</v>
       </c>
       <c r="H811">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-104792872.2541584</v>
       </c>
       <c r="H812">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-104804534.6079584</v>
       </c>
       <c r="H813">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-104988088.0637584</v>
       </c>
       <c r="H814">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-105095202.3439584</v>
       </c>
       <c r="H815">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-105002686.1809584</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-104985623.8112584</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-104985623.8112584</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-104999602.3014584</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-104999602.3014584</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-104980410.1905867</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-104984123.9425867</v>
       </c>
       <c r="H822">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-104983855.7958867</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-105124952.2872867</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-105176785.6216867</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-105184968.1508867</v>
       </c>
       <c r="H826">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-105184968.1508867</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-105184968.1508867</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-105187070.4815339</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-104965080.3905812</v>
       </c>
       <c r="H830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-104964697.5165812</v>
       </c>
       <c r="H831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-104966039.3130812</v>
       </c>
       <c r="H832">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-104964845.9504602</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-105012003.0463602</v>
       </c>
       <c r="H834">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-105012003.0463602</v>
       </c>
       <c r="H835">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-105024431.8721602</v>
       </c>
       <c r="H836">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-105041468.1527602</v>
       </c>
       <c r="H837">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-105192218.1779602</v>
       </c>
       <c r="H838">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-105172242.0828602</v>
       </c>
       <c r="H839">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-105179847.6936602</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-105177399.3533602</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-105177240.9495602</v>
       </c>
       <c r="H842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-105180472.9096602</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-105172981.7788602</v>
       </c>
       <c r="H844">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-105112226.1628733</v>
       </c>
       <c r="H845">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-105064326.1376602</v>
       </c>
       <c r="H846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-105061961.3398602</v>
       </c>
       <c r="H847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-105112698.5250602</v>
       </c>
       <c r="H848">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-105159462.8264602</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-105159462.8264602</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-105221733.2861602</v>
       </c>
       <c r="H853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-105264490.1767602</v>
       </c>
       <c r="H854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-105264490.1767602</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-105260320.9996027</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-105273056.1030027</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-105203829.3898027</v>
       </c>
       <c r="H858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-105197287.6182027</v>
       </c>
       <c r="H859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-105201291.2352027</v>
       </c>
       <c r="H860">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-105117553.9564027</v>
       </c>
       <c r="H861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-105117553.9564027</v>
       </c>
       <c r="H862">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-105069178.2911027</v>
       </c>
       <c r="H863">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-105069178.2911027</v>
       </c>
       <c r="H864">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-105113890.7239027</v>
       </c>
       <c r="H865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-105113890.7239027</v>
       </c>
       <c r="H866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-105133020.5865027</v>
       </c>
       <c r="H867">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-105112814.8470027</v>
       </c>
       <c r="H868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-105112814.8470027</v>
       </c>
       <c r="H869">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-105124942.8091027</v>
       </c>
       <c r="H870">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-105123441.3454843</v>
       </c>
       <c r="H871">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-105123441.3454843</v>
       </c>
       <c r="H872">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-105033014.7036489</v>
       </c>
       <c r="H873">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-105029184.6804489</v>
       </c>
       <c r="H874">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-105030796.8331407</v>
       </c>
       <c r="H875">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-105030796.8331407</v>
       </c>
       <c r="H876">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-104974034.0144325</v>
       </c>
       <c r="H877">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-104949345.4207325</v>
       </c>
       <c r="H878">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-104949345.4207325</v>
       </c>
       <c r="H879">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-104937153.2877703</v>
       </c>
       <c r="H880">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-104909284.6115703</v>
       </c>
       <c r="H881">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-104895996.5355703</v>
       </c>
       <c r="H882">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-104938826.5825703</v>
       </c>
       <c r="H883">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-104689278.2270703</v>
       </c>
       <c r="H884">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-104651047.3799687</v>
       </c>
       <c r="H885">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-104741285.7250687</v>
       </c>
       <c r="H886">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-104741285.7250687</v>
       </c>
       <c r="H887">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-104735695.8835687</v>
       </c>
       <c r="H888">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-104735695.8835687</v>
       </c>
       <c r="H889">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-104702815.804965</v>
       </c>
       <c r="H890">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-104679796.523665</v>
       </c>
       <c r="H891">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-104695127.108565</v>
       </c>
       <c r="H892">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-104650653.165965</v>
       </c>
       <c r="H893">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-104650653.165965</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-104481123.5401382</v>
       </c>
       <c r="H950">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-104478567.2364382</v>
       </c>
       <c r="H951">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-104422829.2704382</v>
       </c>
       <c r="H952">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-104427052.0695382</v>
       </c>
       <c r="H953">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-104313443.7239382</v>
       </c>
       <c r="H954">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-104313443.7239382</v>
       </c>
       <c r="H955">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-104422151.9531382</v>
       </c>
       <c r="H957">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-104422151.9531382</v>
       </c>
       <c r="H958">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-104422151.9531382</v>
       </c>
       <c r="H959">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-104422151.9531382</v>
       </c>
       <c r="H960">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-104422131.3102545</v>
       </c>
       <c r="H961">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-104414314.9102545</v>
       </c>
       <c r="H962">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-104424528.6284545</v>
       </c>
       <c r="H963">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-104383454.2694545</v>
       </c>
       <c r="H964">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-104557292.4115545</v>
       </c>
       <c r="H965">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-104537256.1401253</v>
       </c>
       <c r="H966">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-104538053.1401253</v>
       </c>
       <c r="H967">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-104537863.9180253</v>
       </c>
       <c r="H968">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-104587404.4339253</v>
       </c>
       <c r="H970">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-104562730.285381</v>
       </c>
       <c r="H971">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-104572551.553481</v>
       </c>
       <c r="H975">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-104821942.076881</v>
       </c>
       <c r="H982">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-104884983.102281</v>
       </c>
       <c r="H983">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-104884973.889381</v>
       </c>
       <c r="H984">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-104884973.889381</v>
       </c>
       <c r="H986">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-104884973.889381</v>
       </c>
       <c r="H987">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-104873499.164281</v>
       </c>
       <c r="H988">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-104645991.819181</v>
       </c>
       <c r="H990">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-104585244.174081</v>
       </c>
       <c r="H991">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-104354930.4546055</v>
       </c>
       <c r="H1076">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-104354930.4546055</v>
       </c>
       <c r="H1077">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-104354930.4546055</v>
       </c>
       <c r="H1078">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-104354930.4546055</v>
       </c>
       <c r="H1079">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-104354930.4546055</v>
       </c>
       <c r="H1080">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-104365973.5617055</v>
       </c>
       <c r="H1081">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-104365973.5617055</v>
       </c>
       <c r="H1082">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-104365973.5617055</v>
       </c>
       <c r="H1083">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-104340228.4052055</v>
       </c>
       <c r="H1084">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-104340994.3246899</v>
       </c>
       <c r="H1085">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-104340994.3246899</v>
       </c>
       <c r="H1086">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-104336492.3246899</v>
       </c>
       <c r="H1087">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-104301144.2381579</v>
       </c>
       <c r="H1101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-104309125.7611579</v>
       </c>
       <c r="H1103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-104305285.4491579</v>
       </c>
       <c r="H1104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-104312508.9454579</v>
       </c>
       <c r="H1111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-104312508.9454579</v>
       </c>
       <c r="H1112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-104312508.9454579</v>
       </c>
       <c r="H1113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-104307119.2486579</v>
       </c>
       <c r="H1114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-104268920.3744579</v>
       </c>
       <c r="H1117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-104272237.4161579</v>
       </c>
       <c r="H1118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1119" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 XRP ohlcv.xlsx
@@ -8400,7 +8400,7 @@
         <v>594989.9429352101</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>594989.9429352101</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>525568.08729605</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>526884.8106960501</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>526884.8106960501</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>526877.6340960501</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>770442.6510069001</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>757547.7912069001</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>757547.7912069001</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>795793.9941069002</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>893902.2385069001</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>870250.2341069002</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>946347.5980188402</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>941699.1376214601</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>967684.4106240801</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>967684.4106240801</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>967684.4106240801</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>967684.4106240801</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>967684.4106240801</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>937616.5975121401</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>937616.5975121401</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>937616.5975121401</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>937616.5975121401</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>832611.7532121401</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>775046.7403121401</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>765939.7124121401</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>767479.3523121401</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>867905.07621214</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>867905.07621214</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>927909.13791214</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>1017246.20431214</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>1058477.15911214</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>1064527.93491214</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>1169014.75311214</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>1563456.89629857</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>2494966.28873967</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>2872487.76042348</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>2872487.76042348</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>3513761.7737667</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-102320920.7234345</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-102771012.9409684</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-102691629.9711684</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-102850474.6283684</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-102653526.0479684</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-103180870.0201685</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-103180870.0201685</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-103035280.5804685</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-102771593.2073566</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-101851354.3883831</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-102362420.585547</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-102642494.6120865</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-102715629.2016865</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-102859185.6305676</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-102859947.2113794</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-102809316.6904911</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-102875262.2943911</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-102954788.9016184</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-103111391.3178977</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-103099404.2561977</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-103072085.6401977</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-103072085.6401977</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-102997134.3071977</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-102987257.7978734</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-103029033.2859648</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-102863611.5392648</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-102898865.0606354</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-102898865.0606354</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-102784084.9680354</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-102784084.9680354</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-102902341.6041354</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-102687032.3558512</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-102598184.2078512</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-102405276.6596424</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-102622515.5278424</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-102765248.2964424</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-102833607.4375424</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-102833607.4375424</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-102792385.4471731</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-102793029.0810731</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-102793029.0810731</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-102720973.8139586</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-102715746.6139586</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-102711010.6176441</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-102584027.9968441</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-102595405.6923441</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-102685825.1596441</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-102685825.1596441</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-102764849.0401441</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-102764849.0401441</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-102616368.0862441</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-102773239.1363441</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-103233617.0794441</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-103233031.8117071</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-103240187.2040071</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-103479421.0536071</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-103500227.2796071</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-103500227.2796071</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-103514445.7500071</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-103508544.8609071</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-103508544.8609071</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-103580589.5724071</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-103575106.3443071</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-103590853.3237915</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-103564874.7836585</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-103564878.5233585</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-103547877.9026585</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-103547877.9026585</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-103548217.6085585</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-103542539.6098108</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-103622134.0022108</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-103622134.0022108</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-103641460.6288108</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-103641460.6288108</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-103762094.1555108</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-103828688.4615108</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-103790783.0700108</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-104017328.2382108</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-103992201.8157108</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-103955978.3674593</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-103833180.4309593</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-103839133.8028593</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-103839133.8028593</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-103564410.325735</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-103565723.574635</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-103635146.970535</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-103635152.970535</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-103635453.425135</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-103939441.8147108</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-103939175.0752108</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-103942214.9970719</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-103751831.0875719</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-103834538.6794719</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-103815874.6491719</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-103910046.6440082</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-103908676.762598</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-103908676.762598</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-103888603.3635183</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-103888603.3635183</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-103889659.4613183</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-103899075.3853183</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-103803351.0245183</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-103803351.0245183</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-103782284.9075183</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-103788343.0543183</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-103788343.0543183</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-103766633.3081183</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-103766633.3081183</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-103583012.8203183</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-103583012.8203183</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-103583012.8203183</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-103573359.8573183</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-103469988.4736183</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-103476373.7927183</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-103476371.7927183</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-103476371.7927183</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-103497083.2757183</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-103498713.4055183</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-103498713.4055183</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-103505018.1889183</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-103509691.8740183</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-103491486.3049183</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-103491486.3049183</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-103491486.3049183</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-103492902.0434183</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-103489597.7254183</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-103489597.7254183</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-103570640.1206183</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-103570640.1206183</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-103568469.3053183</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-103568469.3053183</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-103568469.3053183</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-103602131.8987183</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-103610433.3956183</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-103610433.3956183</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-103660866.119628</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-103669954.651028</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-103669954.651028</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-103669954.651028</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-103618216.857528</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-103612820.4393779</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-103614467.1712779</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-103608598.4142779</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-103606492.2366779</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-103606492.2366779</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-103606483.9310301</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-103648163.2218301</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-103637385.6492301</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-103694689.0032301</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-103684551.0559047</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-103790803.6894047</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-104291419.3495047</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-104291419.3495047</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-104361050.9551649</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-104272784.7778649</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-104272784.7778649</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-104512099.1131415</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-104505143.1169415</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-104505143.1169415</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-104505143.1169415</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-104775653.6872415</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-104775653.6872415</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-104747203.372423</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-104744659.0287415</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-104756355.7747415</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-104783628.0287415</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-104783628.0287415</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-104783628.0287415</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-104810764.7911415</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-104814052.1558415</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-104804813.3423231</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-104804813.3423231</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-104819977.0280634</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-104819977.0280634</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-104819977.0280634</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-104763329.1155778</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-104504528.7788221</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-104502264.4671221</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-104502264.4671221</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-104547919.2728221</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-104547919.2728221</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-104422884.5020221</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-104361308.9105221</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-104361308.9105221</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-104361308.9105221</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-104361308.9105221</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-104361308.9105221</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-104370241.7640221</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-104358517.4674471</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-104348649.9586564</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-104476838.6078584</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-104622940.7623584</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-104594569.9386584</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-104581366.9227584</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-104581366.9227584</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-104792872.2541584</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-104804534.6079584</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-104988088.0637584</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-105095202.3439584</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-105002686.1809584</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-104985623.8112584</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-104985623.8112584</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-104999602.3014584</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-104999602.3014584</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-104980410.1905867</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-104984123.9425867</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-104983855.7958867</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-105124952.2872867</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-105176785.6216867</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-105184968.1508867</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-105184968.1508867</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-105184968.1508867</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-105187070.4815339</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-104965080.3905812</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-104964697.5165812</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-104966039.3130812</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-104964845.9504602</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-105012003.0463602</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-105012003.0463602</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-105024431.8721602</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-105041468.1527602</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-105192218.1779602</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-105172242.0828602</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-105179847.6936602</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-105177399.3533602</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-105177240.9495602</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-105180472.9096602</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-105172981.7788602</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-105112226.1628733</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-105064326.1376602</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-105061961.3398602</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-105112698.5250602</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-105159462.8264602</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-105159462.8264602</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-105221733.2861602</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-105264490.1767602</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-105264490.1767602</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-105260320.9996027</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-105273056.1030027</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-105203829.3898027</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-105197287.6182027</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-105201291.2352027</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-105117553.9564027</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-105117553.9564027</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-105069178.2911027</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-105069178.2911027</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-105113890.7239027</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-105113890.7239027</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-105133020.5865027</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-105112814.8470027</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-105112814.8470027</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-105124942.8091027</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-105123441.3454843</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-105123441.3454843</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-105033014.7036489</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-105029184.6804489</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-105030796.8331407</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-105030796.8331407</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-104974034.0144325</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-104949345.4207325</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-104949345.4207325</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-104937153.2877703</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-104909284.6115703</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-104895996.5355703</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-104938826.5825703</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-104689278.2270703</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-104651047.3799687</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-104741285.7250687</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-104741285.7250687</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-104735695.8835687</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-104735695.8835687</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-104702815.804965</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-104679796.523665</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-104695127.108565</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-104650653.165965</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-104650653.165965</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-104650653.165965</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-104598753.165965</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-104568734.290965</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-104577586.493665</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-104577586.493665</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-104465342.949265</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-104465342.949265</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-104471391.154765</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-104372909.752335</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-104372909.752335</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-104449831.5623138</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-104464420.4268138</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-104460863.6654138</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-104488520.7949138</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-104492059.2309154</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-104480988.1321363</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-104480988.1321363</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-104543501.001217</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-104501737.220317</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-104362916.563817</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-104368369.559217</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-104332785.950317</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-104280481.356002</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-104295309.315802</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-104295309.315802</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-104124043.926002</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-104135121.743502</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-104018918.030802</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-104018918.030802</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-104018918.030802</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-104118185.6488687</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-104118185.6488687</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-104134762.2059817</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-104092747.3455727</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-104092574.1342727</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-104151544.0682727</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-104256461.3689727</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-104281962.3063727</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-104281962.3063727</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-104411545.2561727</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-104396989.2198727</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-104425070.1747727</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-104354496.3437727</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-104389872.4859014</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-104387164.3283014</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-104394787.7571014</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-104408130.0843014</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-104397209.9034014</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-104415256.2675014</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-104442386.7440014</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-104430167.0028382</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-104442504.4904382</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-104418573.3162382</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-104418573.3162382</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-104493435.1588382</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-104481123.5401382</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-104478567.2364382</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-104422829.2704382</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-104427052.0695382</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-104313443.7239382</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-104313443.7239382</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-104349786.5457382</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-104422151.9531382</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-104422151.9531382</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-104422151.9531382</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-104422151.9531382</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-104422131.3102545</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-104414314.9102545</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-104424528.6284545</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-104383454.2694545</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-104557292.4115545</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-104537256.1401253</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-104538053.1401253</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-104537863.9180253</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-104587404.4339253</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-104562730.285381</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-104572551.553481</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-104821942.076881</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-104884983.102281</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-104884973.889381</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-104884973.889381</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-104884973.889381</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-104873499.164281</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-104645991.819181</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-104585244.174081</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-104555998.423881</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-104616827.3891638</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-104616236.475536</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-104604097.365336</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-104607924.060936</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-104525949.044436</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-104641888.538136</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-104626904.304536</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-104515883.306736</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-104515883.306736</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-104515883.306736</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-104533520.437936</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-104483337.494136</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-104474887.790136</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-104474887.790136</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-104474887.790136</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-104310141.05343</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-104362520.20443</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-104362520.20443</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-104368215.5348563</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-104368215.5348563</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-104368215.5348563</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-104361609.2266563</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-104332488.1389902</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-104358335.1904902</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-104358335.1904902</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-104341329.846199</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-104407788.093999</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-104440443.939999</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-104411823.465699</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-104417857.9419492</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-104397899.9610492</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-104397899.9610492</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-104397899.9610492</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-104397899.9610492</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-104397899.9610492</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-104397899.9610492</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-104412970.8691491</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-104411816.1853644</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-104366105.3737993</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-104416691.6753993</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-104416691.6753993</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-104397588.0931503</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-104397588.0931503</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-104396027.1586503</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-104401072.9661503</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-104345162.6331503</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-104407166.850393</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-104327274.196993</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-104216589.3386671</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-104249777.7980671</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-104006997.2035671</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-104068135.7006671</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-104089562.3012671</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-104105092.1633554</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-104110873.4223554</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-104192134.0993554</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-104192134.0993554</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-104197134.0993554</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-104219002.491117</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-104274053.307217</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-104274053.307217</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-104274053.307217</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-104265493.3441992</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-104270329.5975992</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-104270329.5975992</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-104270329.5975992</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-104292603.9530992</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-104352437.5782992</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-104352357.5782992</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-104352357.5782992</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-104352357.5782992</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-104352357.5782992</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-104352357.5782992</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-104332770.6934992</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-104332770.6934992</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-104333030.6564992</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-104333030.6564992</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-104333030.6564992</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-104333030.6564992</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-104333741.6941992</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-104333473.4763585</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-104336336.2766585</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-104354930.4546055</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-104354930.4546055</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-104354930.4546055</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-104354930.4546055</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-104354930.4546055</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-104354930.4546055</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-104365973.5617055</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-104365973.5617055</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-104365973.5617055</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-104340228.4052055</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-104340994.3246899</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-104340994.3246899</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-104336492.3246899</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-104315887.2231196</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-104338944.9192196</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-104338944.9192196</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-104345701.7463862</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-104320952.1233862</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-104302009.034358</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-104302009.034358</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-104316532.631658</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-104316532.631658</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-104288167.524758</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-104279412.505858</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-104322595.129558</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-104329383.5334579</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-104301144.2381579</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-104309125.7611579</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-104309125.7611579</v>
       </c>
       <c r="H1103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-104305285.4491579</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-104305285.4491579</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-104305285.4491579</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-104305285.4491579</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-104305285.4491579</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-104312508.9454579</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-104312508.9454579</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-104312508.9454579</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-104312508.9454579</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-104312508.9454579</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-104307119.2486579</v>
       </c>
       <c r="H1114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-104310743.3420579</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-104312771.8141579</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-104268920.3744579</v>
       </c>
       <c r="H1117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-104272237.4161579</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-104268099.964058</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-104240457.6327579</v>
       </c>
       <c r="H1120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-104240457.6327579</v>
       </c>
       <c r="H1121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-104240457.6327579</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-104226507.4078984</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-104212727.5415984</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-104190921.6458984</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-103923591.9900984</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-103923591.9900984</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-103919791.9900984</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-103948594.6795984</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-103779179.3838617</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-103784376.7400405</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-103808902.5158405</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-103808902.5158405</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-103808085.2037405</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-103785855.3187405</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-103803203.6390405</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>-103803203.6390405</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-103879179.8001405</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-103879179.8001405</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>-103879179.8001405</v>
       </c>
       <c r="H1140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>-103864467.9486405</v>
       </c>
       <c r="H1141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>-103916518.7127405</v>
       </c>
       <c r="H1142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>-103916497.7120019</v>
       </c>
       <c r="H1143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-103908120.6971315</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-103908120.6971315</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-103790644.4818315</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-103901087.4940315</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-103945945.6249315</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-103903493.8316315</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-103921555.5007687</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-103828168.8883687</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-103828168.8883687</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-103828168.8883687</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-103828168.8883687</v>
       </c>
       <c r="H1154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-103828168.8883687</v>
       </c>
       <c r="H1155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-103835396.0343687</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-103409904.4976687</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-103221913.9522687</v>
       </c>
       <c r="H1158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-103210662.0986687</v>
       </c>
       <c r="H1159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-102885611.9079687</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-102701862.1837873</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-102443904.7603687</v>
       </c>
       <c r="H1162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-102443904.7603687</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-102615464.5908687</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-102541622.1786616</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-102451801.8694616</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-102543572.4700616</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-102543572.4700616</v>
       </c>
       <c r="H1168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-102574709.8347616</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-102527306.0602616</v>
       </c>
       <c r="H1170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-102499534.4491616</v>
       </c>
       <c r="H1171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-102499534.4491616</v>
       </c>
       <c r="H1172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-102315874.387451</v>
       </c>
       <c r="H1173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-102315874.387451</v>
       </c>
       <c r="H1174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-102329219.344051</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-102329219.344051</v>
       </c>
       <c r="H1176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-102459785.214551</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-102459785.214551</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-102459785.214551</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-102514490.9606948</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-102523468.0001948</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-102505963.9720419</v>
       </c>
       <c r="H1182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-102505963.9720419</v>
       </c>
       <c r="H1183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-102431384.8775419</v>
       </c>
       <c r="H1184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-102399748.5955734</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-102408135.8308734</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-102437181.4756734</v>
       </c>
       <c r="H1187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-102261953.3699734</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-102261953.3699734</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-102261953.3699734</v>
       </c>
       <c r="H1190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-102327762.3694734</v>
       </c>
       <c r="H1191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-102218076.1700734</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-102218349.5649734</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-102218349.5649734</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-102218349.5649734</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-102218349.5649734</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-102378634.5946734</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-102299966.3301734</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-102299966.3301734</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-102305123.1062734</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-102305123.1062734</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-102382685.2570734</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-102389989.9553734</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-102412369.5157734</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-102415064.5365734</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-102415064.5365734</v>
       </c>
       <c r="H1206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-102415064.5365734</v>
       </c>
       <c r="H1207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-102410176.9416734</v>
       </c>
       <c r="H1208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-102411630.6541734</v>
       </c>
       <c r="H1209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-102425445.1795734</v>
       </c>
       <c r="H1210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-102631852.9697734</v>
       </c>
       <c r="H1211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-102541556.6255734</v>
       </c>
       <c r="H1212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-102577004.4359741</v>
       </c>
       <c r="H1213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-102612806.1538741</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-102612143.5144741</v>
       </c>
       <c r="H1215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
